--- a/cp1/zaritskyi_fb-01_svirshchuk_fb-01_cp1/Amount_with_space.xlsx
+++ b/cp1/zaritskyi_fb-01_svirshchuk_fb-01_cp1/Amount_with_space.xlsx
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>195525</v>
+        <v>174495</v>
       </c>
     </row>
     <row r="3" spans="1:2">
